--- a/Milestone.xlsx
+++ b/Milestone.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clint\Desktop\Projects\Portfolio\Project1 - Yelp - LetsFind\yelp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5C1222-BF13-4C85-9CB4-E0FACC228BD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E8D5B-D41A-473A-940E-7A81011C353A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BED7ABC-7D6D-44C2-BFEC-44D945104C79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7BED7ABC-7D6D-44C2-BFEC-44D945104C79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>Project LetsRise NOW! - Yelp Clone</t>
   </si>
@@ -98,9 +101,6 @@
     <t>Pagination on ads list</t>
   </si>
   <si>
-    <t>Filters for ads</t>
-  </si>
-  <si>
     <t>Complete the page for single ads</t>
   </si>
   <si>
@@ -171,13 +171,100 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Project LetsRise</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Research on Yelp</t>
+  </si>
+  <si>
+    <t>Design the database model</t>
+  </si>
+  <si>
+    <t>Collect necessary frontend templates</t>
+  </si>
+  <si>
+    <t>Prepare the template according to the requirements</t>
+  </si>
+  <si>
+    <t>Featured ads</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Testimonials</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>Contact Page</t>
+  </si>
+  <si>
+    <t>Header and Footer</t>
+  </si>
+  <si>
+    <t>Blog page</t>
+  </si>
+  <si>
+    <t>Link blog page modules to other required pages</t>
+  </si>
+  <si>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>Ad Page</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>TinyMCE HTML input for contents</t>
+  </si>
+  <si>
+    <t>Like Button</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Estimated time to complete (hrs)</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Work on the frontend</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +289,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,17 +339,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,6 +370,2155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="440107520"/>
+        <c:axId val="440107192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440107520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440107192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440107192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440107520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Project Lets Rise</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Research on Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Design the database model</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Work on the frontend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prepare the template according to the requirements</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Header and Footer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Featured ads</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Categories</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Testimonials</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>About us</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Contact Page</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Blog page</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Link blog page modules to other required pages</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Login/Logout</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SignUp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ad Page</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Pagination</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Search</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>OAuth2 Login</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Comments</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CRUD</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Ratings</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TinyMCE HTML input for contents</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Profile Page</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Like Button</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Trending Search</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Rest API</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Error Handling</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>43720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43724</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43724</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43724</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43730</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43732</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43734</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43741</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDD2-4E01-B4F6-96DCCAAE5731}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$5:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Research on Yelp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Design the database model</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Work on the frontend</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prepare the template according to the requirements</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Header and Footer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Featured ads</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Categories</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Testimonials</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>About us</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Contact Page</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Blog page</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Link blog page modules to other required pages</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Login/Logout</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SignUp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ad Page</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Pagination</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Search</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>OAuth2 Login</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Comments</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>CRUD</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Ratings</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TinyMCE HTML input for contents</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Profile Page</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Like Button</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Trending Search</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Rest API</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Error Handling</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$5:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDD2-4E01-B4F6-96DCCAAE5731}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="80"/>
+        <c:axId val="352785800"/>
+        <c:axId val="429429992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352785800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429429992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429429992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352785800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8EB6AF5D-BEC2-4391-B878-3E4D790D4842}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="71" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652993" cy="6278451"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6D416B-DB81-45F4-9F4B-CB9014B90B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30699B0-D29D-4216-9FF7-F37BA2842261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3E25A3-39C6-4113-99EC-7C1FB4E748EB}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +2834,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -601,11 +2849,11 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -614,11 +2862,11 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -810,7 +3058,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
@@ -825,7 +3073,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
@@ -870,190 +3118,235 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1064,4 +3357,711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378A3DD6-3257-424F-9AC3-E73AE7915CE9}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="10">
+        <v>43720</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="10">
+        <v>43720</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="10">
+        <v>43720</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="10">
+        <v>43720</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="10">
+        <v>43724</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="10">
+        <v>43724</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="10">
+        <v>43724</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10">
+        <v>43725</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="10">
+        <v>43725</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10">
+        <v>43726</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="10">
+        <v>43726</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="10">
+        <v>43727</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="10">
+        <v>43728</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE2C31-CC1A-44D4-BED9-1C73D4318C02}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="10">
+        <v>43720</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10">
+        <v>43721</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10">
+        <v>43722</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10">
+        <v>43723</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="10">
+        <v>43724</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="10">
+        <v>43724</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="10">
+        <v>43724</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10">
+        <v>43725</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10">
+        <v>43725</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10">
+        <v>43725</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="10">
+        <v>43728</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="10">
+        <v>43729</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="10">
+        <v>43730</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="10">
+        <v>43732</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="10">
+        <v>43734</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="10">
+        <v>43736</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="10">
+        <v>43741</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="10">
+        <v>43742</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>